--- a/data/136/ISTAT/Index of retail trade sales by type of product and enterprises size class_historical.xlsx
+++ b/data/136/ISTAT/Index of retail trade sales by type of product and enterprises size class_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Index of retail trade sales by" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,989 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
-  <si>
-    <t>1996-01</t>
-  </si>
-  <si>
-    <t>1996-02</t>
-  </si>
-  <si>
-    <t>1996-03</t>
-  </si>
-  <si>
-    <t>1996-04</t>
-  </si>
-  <si>
-    <t>1996-05</t>
-  </si>
-  <si>
-    <t>1996-06</t>
-  </si>
-  <si>
-    <t>1996-07</t>
-  </si>
-  <si>
-    <t>1996-08</t>
-  </si>
-  <si>
-    <t>1996-09</t>
-  </si>
-  <si>
-    <t>1996-10</t>
-  </si>
-  <si>
-    <t>1996-11</t>
-  </si>
-  <si>
-    <t>1996-12</t>
-  </si>
-  <si>
-    <t>1997-01</t>
-  </si>
-  <si>
-    <t>1997-02</t>
-  </si>
-  <si>
-    <t>1997-03</t>
-  </si>
-  <si>
-    <t>1997-04</t>
-  </si>
-  <si>
-    <t>1997-05</t>
-  </si>
-  <si>
-    <t>1997-06</t>
-  </si>
-  <si>
-    <t>1997-07</t>
-  </si>
-  <si>
-    <t>1997-08</t>
-  </si>
-  <si>
-    <t>1997-09</t>
-  </si>
-  <si>
-    <t>1997-10</t>
-  </si>
-  <si>
-    <t>1997-11</t>
-  </si>
-  <si>
-    <t>1997-12</t>
-  </si>
-  <si>
-    <t>1998-01</t>
-  </si>
-  <si>
-    <t>1998-02</t>
-  </si>
-  <si>
-    <t>1998-03</t>
-  </si>
-  <si>
-    <t>1998-04</t>
-  </si>
-  <si>
-    <t>1998-05</t>
-  </si>
-  <si>
-    <t>1998-06</t>
-  </si>
-  <si>
-    <t>1998-07</t>
-  </si>
-  <si>
-    <t>1998-08</t>
-  </si>
-  <si>
-    <t>1998-09</t>
-  </si>
-  <si>
-    <t>1998-10</t>
-  </si>
-  <si>
-    <t>1998-11</t>
-  </si>
-  <si>
-    <t>1998-12</t>
-  </si>
-  <si>
-    <t>1999-01</t>
-  </si>
-  <si>
-    <t>1999-02</t>
-  </si>
-  <si>
-    <t>1999-03</t>
-  </si>
-  <si>
-    <t>1999-04</t>
-  </si>
-  <si>
-    <t>1999-05</t>
-  </si>
-  <si>
-    <t>1999-06</t>
-  </si>
-  <si>
-    <t>1999-07</t>
-  </si>
-  <si>
-    <t>1999-08</t>
-  </si>
-  <si>
-    <t>1999-09</t>
-  </si>
-  <si>
-    <t>1999-10</t>
-  </si>
-  <si>
-    <t>1999-11</t>
-  </si>
-  <si>
-    <t>1999-12</t>
-  </si>
-  <si>
-    <t>2000-01</t>
-  </si>
-  <si>
-    <t>2000-02</t>
-  </si>
-  <si>
-    <t>2000-03</t>
-  </si>
-  <si>
-    <t>2000-04</t>
-  </si>
-  <si>
-    <t>2000-05</t>
-  </si>
-  <si>
-    <t>2000-06</t>
-  </si>
-  <si>
-    <t>2000-07</t>
-  </si>
-  <si>
-    <t>2000-08</t>
-  </si>
-  <si>
-    <t>2000-09</t>
-  </si>
-  <si>
-    <t>2000-10</t>
-  </si>
-  <si>
-    <t>2000-11</t>
-  </si>
-  <si>
-    <t>2000-12</t>
-  </si>
-  <si>
-    <t>2001-01</t>
-  </si>
-  <si>
-    <t>2001-02</t>
-  </si>
-  <si>
-    <t>2001-03</t>
-  </si>
-  <si>
-    <t>2001-04</t>
-  </si>
-  <si>
-    <t>2001-05</t>
-  </si>
-  <si>
-    <t>2001-06</t>
-  </si>
-  <si>
-    <t>2001-07</t>
-  </si>
-  <si>
-    <t>2001-08</t>
-  </si>
-  <si>
-    <t>2001-09</t>
-  </si>
-  <si>
-    <t>2001-10</t>
-  </si>
-  <si>
-    <t>2001-11</t>
-  </si>
-  <si>
-    <t>2001-12</t>
-  </si>
-  <si>
-    <t>2002-01</t>
-  </si>
-  <si>
-    <t>2002-02</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2002-04</t>
-  </si>
-  <si>
-    <t>2002-05</t>
-  </si>
-  <si>
-    <t>2002-06</t>
-  </si>
-  <si>
-    <t>2002-07</t>
-  </si>
-  <si>
-    <t>2002-08</t>
-  </si>
-  <si>
-    <t>2002-09</t>
-  </si>
-  <si>
-    <t>2002-10</t>
-  </si>
-  <si>
-    <t>2002-11</t>
-  </si>
-  <si>
-    <t>2002-12</t>
-  </si>
-  <si>
-    <t>2003-01</t>
-  </si>
-  <si>
-    <t>2003-02</t>
-  </si>
-  <si>
-    <t>2003-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2003-05</t>
-  </si>
-  <si>
-    <t>2003-06</t>
-  </si>
-  <si>
-    <t>2003-07</t>
-  </si>
-  <si>
-    <t>2003-08</t>
-  </si>
-  <si>
-    <t>2003-09</t>
-  </si>
-  <si>
-    <t>2003-10</t>
-  </si>
-  <si>
-    <t>2003-11</t>
-  </si>
-  <si>
-    <t>2003-12</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>total//1-5</t>
-  </si>
-  <si>
-    <t>total//6-49</t>
-  </si>
-  <si>
-    <t>total//50 and over</t>
-  </si>
-  <si>
-    <t>pharmaceuticals and other therapeutic products//total</t>
-  </si>
-  <si>
-    <t>clothing and furs//total</t>
-  </si>
-  <si>
-    <t>shoes, leather goods and travel items//total</t>
-  </si>
-  <si>
-    <t>furniture and textile items and household furnishings//total</t>
-  </si>
-  <si>
-    <t>household appliances, radios, televisions and recorder equipment//total</t>
-  </si>
-  <si>
-    <t>computer and telecommunication equipment//total</t>
-  </si>
-  <si>
-    <t>optical instruments, photographic equipment, cds, audio-video cassettes and musical instruments//total</t>
-  </si>
-  <si>
-    <t>durable and non-durable household items//total</t>
-  </si>
-  <si>
-    <t>household tools and hardware//total</t>
-  </si>
-  <si>
-    <t>toiletry and personal grooming items//total</t>
-  </si>
-  <si>
-    <t>stationery products, books, newspapers and magazines//total</t>
-  </si>
-  <si>
-    <t>games, toys, sports articles and camping items//total</t>
-  </si>
-  <si>
-    <t>other products not classified elsewhere//total</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1349,1050 +366,1672 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:311">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="KA1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="KB1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="KC1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="KD1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="KE1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="KF1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="KG1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="KH1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="KI1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="KJ1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="KK1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="KL1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="KM1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="KN1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="KO1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="KP1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="KQ1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="KR1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="KS1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="KT1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="KU1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="KV1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="KW1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="KX1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="KY1" s="1" t="s">
-        <v>309</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1996-01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1996-02</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1996-03</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1996-04</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1996-05</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1996-06</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1996-07</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1996-08</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1996-09</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1996-10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1996-11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1996-12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1997-01</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1997-02</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1997-03</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1997-04</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1997-05</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1997-06</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1997-07</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1997-08</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1997-09</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1997-10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1997-11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1997-12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1998-01</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1998-02</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1998-03</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1998-04</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1998-05</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1998-06</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1998-07</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1998-08</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1998-09</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1998-10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1998-11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1998-12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1999-01</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1999-02</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1999-03</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1999-04</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1999-05</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-06</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1999-07</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1999-08</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1999-09</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1999-10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1999-11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1999-12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2000-02</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2000-03</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2000-04</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2000-05</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2000-06</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2000-07</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2000-08</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2000-09</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2000-10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2000-11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2000-12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-01</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2001-02</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2001-03</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2001-04</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2001-05</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2001-06</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2001-07</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-08</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2001-09</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2001-10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2001-11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2001-12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2002-01</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2002-02</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2002-04</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-05</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2002-06</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2002-07</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2002-08</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2002-09</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2002-10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2002-11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2002-12</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2003-01</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2003-02</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-03</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2003-05</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2003-06</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2003-07</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2003-08</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2003-09</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-10</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2003-11</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2003-12</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2004-01</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2004-02</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2004-03</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2004-04</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2004-06</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-07</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2004-09</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2004-10</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2004-11</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2004-12</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-01</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-05</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2005-07</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2005-11</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-12</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2006-01</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2006-02</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2006-03</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2006-04</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2006-05</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2006-06</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2006-08</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-09</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2006-10</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2006-11</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2006-12</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2007-03</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2007-04</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2007-05</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2007-06</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-07</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2007-09</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2007-10</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2007-11</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2007-12</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2008-03</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2008-05</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2008-06</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2008-07</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2008-08</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2008-10</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-11</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2008-12</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-01</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-02</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2009-03</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2009-04</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2009-05</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2009-06</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2009-07</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2009-08</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-09</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2009-11</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2009-12</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2010-01</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-02</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2010-03</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2010-05</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2010-06</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2010-07</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2010-08</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2010-09</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2010-12</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-01</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2011-02</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2011-03</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2011-04</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2011-05</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2011-06</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2011-08</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>2012-03</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2012-07</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2012-08</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2012-09</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2012-10</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2012-11</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2012-12</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2013-04</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>2013-06</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>2013-07</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>2013-08</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>2013-11</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>2014-03</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>2014-04</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>2014-06</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>2014-07</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-08</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>2014-12</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>2015-11</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-03</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:311">
-      <c r="A2" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
-      <c r="V2" t="s"/>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
-      <c r="Z2" t="s"/>
-      <c r="AA2" t="s"/>
-      <c r="AB2" t="s"/>
-      <c r="AC2" t="s"/>
-      <c r="AD2" t="s"/>
-      <c r="AE2" t="s"/>
-      <c r="AF2" t="s"/>
-      <c r="AG2" t="s"/>
-      <c r="AH2" t="s"/>
-      <c r="AI2" t="s"/>
-      <c r="AJ2" t="s"/>
-      <c r="AK2" t="s"/>
-      <c r="AL2" t="s"/>
-      <c r="AM2" t="s"/>
-      <c r="AN2" t="s"/>
-      <c r="AO2" t="s"/>
-      <c r="AP2" t="s"/>
-      <c r="AQ2" t="s"/>
-      <c r="AR2" t="s"/>
-      <c r="AS2" t="s"/>
-      <c r="AT2" t="s"/>
-      <c r="AU2" t="s"/>
-      <c r="AV2" t="s"/>
-      <c r="AW2" t="s"/>
-      <c r="AX2" t="s"/>
-      <c r="AY2" t="s"/>
-      <c r="AZ2" t="s"/>
-      <c r="BA2" t="s"/>
-      <c r="BB2" t="s"/>
-      <c r="BC2" t="s"/>
-      <c r="BD2" t="s"/>
-      <c r="BE2" t="s"/>
-      <c r="BF2" t="s"/>
-      <c r="BG2" t="s"/>
-      <c r="BH2" t="s"/>
-      <c r="BI2" t="s"/>
-      <c r="BJ2" t="s"/>
-      <c r="BK2" t="s"/>
-      <c r="BL2" t="s"/>
-      <c r="BM2" t="s"/>
-      <c r="BN2" t="s"/>
-      <c r="BO2" t="s"/>
-      <c r="BP2" t="s"/>
-      <c r="BQ2" t="s"/>
-      <c r="BR2" t="s"/>
-      <c r="BS2" t="s"/>
-      <c r="BT2" t="s"/>
-      <c r="BU2" t="s"/>
-      <c r="BV2" t="s"/>
-      <c r="BW2" t="s"/>
-      <c r="BX2" t="s"/>
-      <c r="BY2" t="s"/>
-      <c r="BZ2" t="s"/>
-      <c r="CA2" t="s"/>
-      <c r="CB2" t="s"/>
-      <c r="CC2" t="s"/>
-      <c r="CD2" t="s"/>
-      <c r="CE2" t="s"/>
-      <c r="CF2" t="s"/>
-      <c r="CG2" t="s"/>
-      <c r="CH2" t="s"/>
-      <c r="CI2" t="s"/>
-      <c r="CJ2" t="s"/>
-      <c r="CK2" t="s"/>
-      <c r="CL2" t="s"/>
-      <c r="CM2" t="s"/>
-      <c r="CN2" t="s"/>
-      <c r="CO2" t="s"/>
-      <c r="CP2" t="s"/>
-      <c r="CQ2" t="s"/>
-      <c r="CR2" t="s"/>
-      <c r="CS2" t="s"/>
-      <c r="CT2" t="s"/>
-      <c r="CU2" t="s"/>
-      <c r="CV2" t="s"/>
-      <c r="CW2" t="s"/>
-      <c r="CX2" t="s"/>
-      <c r="CY2" t="s"/>
-      <c r="CZ2" t="s"/>
-      <c r="DA2" t="s"/>
-      <c r="DB2" t="s"/>
-      <c r="DC2" t="s"/>
-      <c r="DD2" t="s"/>
-      <c r="DE2" t="s"/>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>total//1-5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
       <c r="DF2" t="n">
         <v>103.5</v>
       </c>
@@ -3000,118 +2639,120 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="3" spans="1:311">
-      <c r="A3" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-      <c r="V3" t="s"/>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
-      <c r="Z3" t="s"/>
-      <c r="AA3" t="s"/>
-      <c r="AB3" t="s"/>
-      <c r="AC3" t="s"/>
-      <c r="AD3" t="s"/>
-      <c r="AE3" t="s"/>
-      <c r="AF3" t="s"/>
-      <c r="AG3" t="s"/>
-      <c r="AH3" t="s"/>
-      <c r="AI3" t="s"/>
-      <c r="AJ3" t="s"/>
-      <c r="AK3" t="s"/>
-      <c r="AL3" t="s"/>
-      <c r="AM3" t="s"/>
-      <c r="AN3" t="s"/>
-      <c r="AO3" t="s"/>
-      <c r="AP3" t="s"/>
-      <c r="AQ3" t="s"/>
-      <c r="AR3" t="s"/>
-      <c r="AS3" t="s"/>
-      <c r="AT3" t="s"/>
-      <c r="AU3" t="s"/>
-      <c r="AV3" t="s"/>
-      <c r="AW3" t="s"/>
-      <c r="AX3" t="s"/>
-      <c r="AY3" t="s"/>
-      <c r="AZ3" t="s"/>
-      <c r="BA3" t="s"/>
-      <c r="BB3" t="s"/>
-      <c r="BC3" t="s"/>
-      <c r="BD3" t="s"/>
-      <c r="BE3" t="s"/>
-      <c r="BF3" t="s"/>
-      <c r="BG3" t="s"/>
-      <c r="BH3" t="s"/>
-      <c r="BI3" t="s"/>
-      <c r="BJ3" t="s"/>
-      <c r="BK3" t="s"/>
-      <c r="BL3" t="s"/>
-      <c r="BM3" t="s"/>
-      <c r="BN3" t="s"/>
-      <c r="BO3" t="s"/>
-      <c r="BP3" t="s"/>
-      <c r="BQ3" t="s"/>
-      <c r="BR3" t="s"/>
-      <c r="BS3" t="s"/>
-      <c r="BT3" t="s"/>
-      <c r="BU3" t="s"/>
-      <c r="BV3" t="s"/>
-      <c r="BW3" t="s"/>
-      <c r="BX3" t="s"/>
-      <c r="BY3" t="s"/>
-      <c r="BZ3" t="s"/>
-      <c r="CA3" t="s"/>
-      <c r="CB3" t="s"/>
-      <c r="CC3" t="s"/>
-      <c r="CD3" t="s"/>
-      <c r="CE3" t="s"/>
-      <c r="CF3" t="s"/>
-      <c r="CG3" t="s"/>
-      <c r="CH3" t="s"/>
-      <c r="CI3" t="s"/>
-      <c r="CJ3" t="s"/>
-      <c r="CK3" t="s"/>
-      <c r="CL3" t="s"/>
-      <c r="CM3" t="s"/>
-      <c r="CN3" t="s"/>
-      <c r="CO3" t="s"/>
-      <c r="CP3" t="s"/>
-      <c r="CQ3" t="s"/>
-      <c r="CR3" t="s"/>
-      <c r="CS3" t="s"/>
-      <c r="CT3" t="s"/>
-      <c r="CU3" t="s"/>
-      <c r="CV3" t="s"/>
-      <c r="CW3" t="s"/>
-      <c r="CX3" t="s"/>
-      <c r="CY3" t="s"/>
-      <c r="CZ3" t="s"/>
-      <c r="DA3" t="s"/>
-      <c r="DB3" t="s"/>
-      <c r="DC3" t="s"/>
-      <c r="DD3" t="s"/>
-      <c r="DE3" t="s"/>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>total//6-49</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
       <c r="DF3" t="n">
         <v>96.59999999999999</v>
       </c>
@@ -3719,118 +3360,120 @@
         <v>110.7</v>
       </c>
     </row>
-    <row r="4" spans="1:311">
-      <c r="A4" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-      <c r="V4" t="s"/>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
-      <c r="Z4" t="s"/>
-      <c r="AA4" t="s"/>
-      <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
-      <c r="AD4" t="s"/>
-      <c r="AE4" t="s"/>
-      <c r="AF4" t="s"/>
-      <c r="AG4" t="s"/>
-      <c r="AH4" t="s"/>
-      <c r="AI4" t="s"/>
-      <c r="AJ4" t="s"/>
-      <c r="AK4" t="s"/>
-      <c r="AL4" t="s"/>
-      <c r="AM4" t="s"/>
-      <c r="AN4" t="s"/>
-      <c r="AO4" t="s"/>
-      <c r="AP4" t="s"/>
-      <c r="AQ4" t="s"/>
-      <c r="AR4" t="s"/>
-      <c r="AS4" t="s"/>
-      <c r="AT4" t="s"/>
-      <c r="AU4" t="s"/>
-      <c r="AV4" t="s"/>
-      <c r="AW4" t="s"/>
-      <c r="AX4" t="s"/>
-      <c r="AY4" t="s"/>
-      <c r="AZ4" t="s"/>
-      <c r="BA4" t="s"/>
-      <c r="BB4" t="s"/>
-      <c r="BC4" t="s"/>
-      <c r="BD4" t="s"/>
-      <c r="BE4" t="s"/>
-      <c r="BF4" t="s"/>
-      <c r="BG4" t="s"/>
-      <c r="BH4" t="s"/>
-      <c r="BI4" t="s"/>
-      <c r="BJ4" t="s"/>
-      <c r="BK4" t="s"/>
-      <c r="BL4" t="s"/>
-      <c r="BM4" t="s"/>
-      <c r="BN4" t="s"/>
-      <c r="BO4" t="s"/>
-      <c r="BP4" t="s"/>
-      <c r="BQ4" t="s"/>
-      <c r="BR4" t="s"/>
-      <c r="BS4" t="s"/>
-      <c r="BT4" t="s"/>
-      <c r="BU4" t="s"/>
-      <c r="BV4" t="s"/>
-      <c r="BW4" t="s"/>
-      <c r="BX4" t="s"/>
-      <c r="BY4" t="s"/>
-      <c r="BZ4" t="s"/>
-      <c r="CA4" t="s"/>
-      <c r="CB4" t="s"/>
-      <c r="CC4" t="s"/>
-      <c r="CD4" t="s"/>
-      <c r="CE4" t="s"/>
-      <c r="CF4" t="s"/>
-      <c r="CG4" t="s"/>
-      <c r="CH4" t="s"/>
-      <c r="CI4" t="s"/>
-      <c r="CJ4" t="s"/>
-      <c r="CK4" t="s"/>
-      <c r="CL4" t="s"/>
-      <c r="CM4" t="s"/>
-      <c r="CN4" t="s"/>
-      <c r="CO4" t="s"/>
-      <c r="CP4" t="s"/>
-      <c r="CQ4" t="s"/>
-      <c r="CR4" t="s"/>
-      <c r="CS4" t="s"/>
-      <c r="CT4" t="s"/>
-      <c r="CU4" t="s"/>
-      <c r="CV4" t="s"/>
-      <c r="CW4" t="s"/>
-      <c r="CX4" t="s"/>
-      <c r="CY4" t="s"/>
-      <c r="CZ4" t="s"/>
-      <c r="DA4" t="s"/>
-      <c r="DB4" t="s"/>
-      <c r="DC4" t="s"/>
-      <c r="DD4" t="s"/>
-      <c r="DE4" t="s"/>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>total//50 and over</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
       <c r="DF4" t="n">
         <v>81.3</v>
       </c>
@@ -4438,118 +4081,120 @@
         <v>123.4</v>
       </c>
     </row>
-    <row r="5" spans="1:311">
-      <c r="A5" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="s"/>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
-      <c r="Z5" t="s"/>
-      <c r="AA5" t="s"/>
-      <c r="AB5" t="s"/>
-      <c r="AC5" t="s"/>
-      <c r="AD5" t="s"/>
-      <c r="AE5" t="s"/>
-      <c r="AF5" t="s"/>
-      <c r="AG5" t="s"/>
-      <c r="AH5" t="s"/>
-      <c r="AI5" t="s"/>
-      <c r="AJ5" t="s"/>
-      <c r="AK5" t="s"/>
-      <c r="AL5" t="s"/>
-      <c r="AM5" t="s"/>
-      <c r="AN5" t="s"/>
-      <c r="AO5" t="s"/>
-      <c r="AP5" t="s"/>
-      <c r="AQ5" t="s"/>
-      <c r="AR5" t="s"/>
-      <c r="AS5" t="s"/>
-      <c r="AT5" t="s"/>
-      <c r="AU5" t="s"/>
-      <c r="AV5" t="s"/>
-      <c r="AW5" t="s"/>
-      <c r="AX5" t="s"/>
-      <c r="AY5" t="s"/>
-      <c r="AZ5" t="s"/>
-      <c r="BA5" t="s"/>
-      <c r="BB5" t="s"/>
-      <c r="BC5" t="s"/>
-      <c r="BD5" t="s"/>
-      <c r="BE5" t="s"/>
-      <c r="BF5" t="s"/>
-      <c r="BG5" t="s"/>
-      <c r="BH5" t="s"/>
-      <c r="BI5" t="s"/>
-      <c r="BJ5" t="s"/>
-      <c r="BK5" t="s"/>
-      <c r="BL5" t="s"/>
-      <c r="BM5" t="s"/>
-      <c r="BN5" t="s"/>
-      <c r="BO5" t="s"/>
-      <c r="BP5" t="s"/>
-      <c r="BQ5" t="s"/>
-      <c r="BR5" t="s"/>
-      <c r="BS5" t="s"/>
-      <c r="BT5" t="s"/>
-      <c r="BU5" t="s"/>
-      <c r="BV5" t="s"/>
-      <c r="BW5" t="s"/>
-      <c r="BX5" t="s"/>
-      <c r="BY5" t="s"/>
-      <c r="BZ5" t="s"/>
-      <c r="CA5" t="s"/>
-      <c r="CB5" t="s"/>
-      <c r="CC5" t="s"/>
-      <c r="CD5" t="s"/>
-      <c r="CE5" t="s"/>
-      <c r="CF5" t="s"/>
-      <c r="CG5" t="s"/>
-      <c r="CH5" t="s"/>
-      <c r="CI5" t="s"/>
-      <c r="CJ5" t="s"/>
-      <c r="CK5" t="s"/>
-      <c r="CL5" t="s"/>
-      <c r="CM5" t="s"/>
-      <c r="CN5" t="s"/>
-      <c r="CO5" t="s"/>
-      <c r="CP5" t="s"/>
-      <c r="CQ5" t="s"/>
-      <c r="CR5" t="s"/>
-      <c r="CS5" t="s"/>
-      <c r="CT5" t="s"/>
-      <c r="CU5" t="s"/>
-      <c r="CV5" t="s"/>
-      <c r="CW5" t="s"/>
-      <c r="CX5" t="s"/>
-      <c r="CY5" t="s"/>
-      <c r="CZ5" t="s"/>
-      <c r="DA5" t="s"/>
-      <c r="DB5" t="s"/>
-      <c r="DC5" t="s"/>
-      <c r="DD5" t="s"/>
-      <c r="DE5" t="s"/>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>pharmaceuticals and other therapeutic products//total</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
       <c r="DF5" t="n">
         <v>87.59999999999999</v>
       </c>
@@ -5157,9 +4802,11 @@
         <v>104.2</v>
       </c>
     </row>
-    <row r="6" spans="1:311">
-      <c r="A6" s="1" t="s">
-        <v>314</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>clothing and furs//total</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>85.54472199344011</v>
@@ -6092,9 +5739,11 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="7" spans="1:311">
-      <c r="A7" s="1" t="s">
-        <v>315</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>shoes, leather goods and travel items//total</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>75.4299064908507</v>
@@ -7027,118 +6676,120 @@
         <v>118.4</v>
       </c>
     </row>
-    <row r="8" spans="1:311">
-      <c r="A8" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="s"/>
-      <c r="AE8" t="s"/>
-      <c r="AF8" t="s"/>
-      <c r="AG8" t="s"/>
-      <c r="AH8" t="s"/>
-      <c r="AI8" t="s"/>
-      <c r="AJ8" t="s"/>
-      <c r="AK8" t="s"/>
-      <c r="AL8" t="s"/>
-      <c r="AM8" t="s"/>
-      <c r="AN8" t="s"/>
-      <c r="AO8" t="s"/>
-      <c r="AP8" t="s"/>
-      <c r="AQ8" t="s"/>
-      <c r="AR8" t="s"/>
-      <c r="AS8" t="s"/>
-      <c r="AT8" t="s"/>
-      <c r="AU8" t="s"/>
-      <c r="AV8" t="s"/>
-      <c r="AW8" t="s"/>
-      <c r="AX8" t="s"/>
-      <c r="AY8" t="s"/>
-      <c r="AZ8" t="s"/>
-      <c r="BA8" t="s"/>
-      <c r="BB8" t="s"/>
-      <c r="BC8" t="s"/>
-      <c r="BD8" t="s"/>
-      <c r="BE8" t="s"/>
-      <c r="BF8" t="s"/>
-      <c r="BG8" t="s"/>
-      <c r="BH8" t="s"/>
-      <c r="BI8" t="s"/>
-      <c r="BJ8" t="s"/>
-      <c r="BK8" t="s"/>
-      <c r="BL8" t="s"/>
-      <c r="BM8" t="s"/>
-      <c r="BN8" t="s"/>
-      <c r="BO8" t="s"/>
-      <c r="BP8" t="s"/>
-      <c r="BQ8" t="s"/>
-      <c r="BR8" t="s"/>
-      <c r="BS8" t="s"/>
-      <c r="BT8" t="s"/>
-      <c r="BU8" t="s"/>
-      <c r="BV8" t="s"/>
-      <c r="BW8" t="s"/>
-      <c r="BX8" t="s"/>
-      <c r="BY8" t="s"/>
-      <c r="BZ8" t="s"/>
-      <c r="CA8" t="s"/>
-      <c r="CB8" t="s"/>
-      <c r="CC8" t="s"/>
-      <c r="CD8" t="s"/>
-      <c r="CE8" t="s"/>
-      <c r="CF8" t="s"/>
-      <c r="CG8" t="s"/>
-      <c r="CH8" t="s"/>
-      <c r="CI8" t="s"/>
-      <c r="CJ8" t="s"/>
-      <c r="CK8" t="s"/>
-      <c r="CL8" t="s"/>
-      <c r="CM8" t="s"/>
-      <c r="CN8" t="s"/>
-      <c r="CO8" t="s"/>
-      <c r="CP8" t="s"/>
-      <c r="CQ8" t="s"/>
-      <c r="CR8" t="s"/>
-      <c r="CS8" t="s"/>
-      <c r="CT8" t="s"/>
-      <c r="CU8" t="s"/>
-      <c r="CV8" t="s"/>
-      <c r="CW8" t="s"/>
-      <c r="CX8" t="s"/>
-      <c r="CY8" t="s"/>
-      <c r="CZ8" t="s"/>
-      <c r="DA8" t="s"/>
-      <c r="DB8" t="s"/>
-      <c r="DC8" t="s"/>
-      <c r="DD8" t="s"/>
-      <c r="DE8" t="s"/>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>furniture and textile items and household furnishings//total</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr"/>
+      <c r="CG8" t="inlineStr"/>
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr"/>
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr"/>
+      <c r="CM8" t="inlineStr"/>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr"/>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr"/>
+      <c r="CW8" t="inlineStr"/>
+      <c r="CX8" t="inlineStr"/>
+      <c r="CY8" t="inlineStr"/>
+      <c r="CZ8" t="inlineStr"/>
+      <c r="DA8" t="inlineStr"/>
+      <c r="DB8" t="inlineStr"/>
+      <c r="DC8" t="inlineStr"/>
+      <c r="DD8" t="inlineStr"/>
+      <c r="DE8" t="inlineStr"/>
       <c r="DF8" t="n">
         <v>108</v>
       </c>
@@ -7746,118 +7397,120 @@
         <v>120.6</v>
       </c>
     </row>
-    <row r="9" spans="1:311">
-      <c r="A9" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="s"/>
-      <c r="AE9" t="s"/>
-      <c r="AF9" t="s"/>
-      <c r="AG9" t="s"/>
-      <c r="AH9" t="s"/>
-      <c r="AI9" t="s"/>
-      <c r="AJ9" t="s"/>
-      <c r="AK9" t="s"/>
-      <c r="AL9" t="s"/>
-      <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
-      <c r="AO9" t="s"/>
-      <c r="AP9" t="s"/>
-      <c r="AQ9" t="s"/>
-      <c r="AR9" t="s"/>
-      <c r="AS9" t="s"/>
-      <c r="AT9" t="s"/>
-      <c r="AU9" t="s"/>
-      <c r="AV9" t="s"/>
-      <c r="AW9" t="s"/>
-      <c r="AX9" t="s"/>
-      <c r="AY9" t="s"/>
-      <c r="AZ9" t="s"/>
-      <c r="BA9" t="s"/>
-      <c r="BB9" t="s"/>
-      <c r="BC9" t="s"/>
-      <c r="BD9" t="s"/>
-      <c r="BE9" t="s"/>
-      <c r="BF9" t="s"/>
-      <c r="BG9" t="s"/>
-      <c r="BH9" t="s"/>
-      <c r="BI9" t="s"/>
-      <c r="BJ9" t="s"/>
-      <c r="BK9" t="s"/>
-      <c r="BL9" t="s"/>
-      <c r="BM9" t="s"/>
-      <c r="BN9" t="s"/>
-      <c r="BO9" t="s"/>
-      <c r="BP9" t="s"/>
-      <c r="BQ9" t="s"/>
-      <c r="BR9" t="s"/>
-      <c r="BS9" t="s"/>
-      <c r="BT9" t="s"/>
-      <c r="BU9" t="s"/>
-      <c r="BV9" t="s"/>
-      <c r="BW9" t="s"/>
-      <c r="BX9" t="s"/>
-      <c r="BY9" t="s"/>
-      <c r="BZ9" t="s"/>
-      <c r="CA9" t="s"/>
-      <c r="CB9" t="s"/>
-      <c r="CC9" t="s"/>
-      <c r="CD9" t="s"/>
-      <c r="CE9" t="s"/>
-      <c r="CF9" t="s"/>
-      <c r="CG9" t="s"/>
-      <c r="CH9" t="s"/>
-      <c r="CI9" t="s"/>
-      <c r="CJ9" t="s"/>
-      <c r="CK9" t="s"/>
-      <c r="CL9" t="s"/>
-      <c r="CM9" t="s"/>
-      <c r="CN9" t="s"/>
-      <c r="CO9" t="s"/>
-      <c r="CP9" t="s"/>
-      <c r="CQ9" t="s"/>
-      <c r="CR9" t="s"/>
-      <c r="CS9" t="s"/>
-      <c r="CT9" t="s"/>
-      <c r="CU9" t="s"/>
-      <c r="CV9" t="s"/>
-      <c r="CW9" t="s"/>
-      <c r="CX9" t="s"/>
-      <c r="CY9" t="s"/>
-      <c r="CZ9" t="s"/>
-      <c r="DA9" t="s"/>
-      <c r="DB9" t="s"/>
-      <c r="DC9" t="s"/>
-      <c r="DD9" t="s"/>
-      <c r="DE9" t="s"/>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>household appliances, radios, televisions and recorder equipment//total</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="inlineStr"/>
+      <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr"/>
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr"/>
+      <c r="CJ9" t="inlineStr"/>
+      <c r="CK9" t="inlineStr"/>
+      <c r="CL9" t="inlineStr"/>
+      <c r="CM9" t="inlineStr"/>
+      <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr"/>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
+      <c r="CW9" t="inlineStr"/>
+      <c r="CX9" t="inlineStr"/>
+      <c r="CY9" t="inlineStr"/>
+      <c r="CZ9" t="inlineStr"/>
+      <c r="DA9" t="inlineStr"/>
+      <c r="DB9" t="inlineStr"/>
+      <c r="DC9" t="inlineStr"/>
+      <c r="DD9" t="inlineStr"/>
+      <c r="DE9" t="inlineStr"/>
       <c r="DF9" t="n">
         <v>94.09999999999999</v>
       </c>
@@ -8465,9 +8118,11 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="10" spans="1:311">
-      <c r="A10" s="1" t="s">
-        <v>318</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>computer and telecommunication equipment//total</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>88.9483995311662</v>
@@ -9400,118 +9055,120 @@
         <v>145.9</v>
       </c>
     </row>
-    <row r="11" spans="1:311">
-      <c r="A11" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
-      <c r="Z11" t="s"/>
-      <c r="AA11" t="s"/>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
-      <c r="AD11" t="s"/>
-      <c r="AE11" t="s"/>
-      <c r="AF11" t="s"/>
-      <c r="AG11" t="s"/>
-      <c r="AH11" t="s"/>
-      <c r="AI11" t="s"/>
-      <c r="AJ11" t="s"/>
-      <c r="AK11" t="s"/>
-      <c r="AL11" t="s"/>
-      <c r="AM11" t="s"/>
-      <c r="AN11" t="s"/>
-      <c r="AO11" t="s"/>
-      <c r="AP11" t="s"/>
-      <c r="AQ11" t="s"/>
-      <c r="AR11" t="s"/>
-      <c r="AS11" t="s"/>
-      <c r="AT11" t="s"/>
-      <c r="AU11" t="s"/>
-      <c r="AV11" t="s"/>
-      <c r="AW11" t="s"/>
-      <c r="AX11" t="s"/>
-      <c r="AY11" t="s"/>
-      <c r="AZ11" t="s"/>
-      <c r="BA11" t="s"/>
-      <c r="BB11" t="s"/>
-      <c r="BC11" t="s"/>
-      <c r="BD11" t="s"/>
-      <c r="BE11" t="s"/>
-      <c r="BF11" t="s"/>
-      <c r="BG11" t="s"/>
-      <c r="BH11" t="s"/>
-      <c r="BI11" t="s"/>
-      <c r="BJ11" t="s"/>
-      <c r="BK11" t="s"/>
-      <c r="BL11" t="s"/>
-      <c r="BM11" t="s"/>
-      <c r="BN11" t="s"/>
-      <c r="BO11" t="s"/>
-      <c r="BP11" t="s"/>
-      <c r="BQ11" t="s"/>
-      <c r="BR11" t="s"/>
-      <c r="BS11" t="s"/>
-      <c r="BT11" t="s"/>
-      <c r="BU11" t="s"/>
-      <c r="BV11" t="s"/>
-      <c r="BW11" t="s"/>
-      <c r="BX11" t="s"/>
-      <c r="BY11" t="s"/>
-      <c r="BZ11" t="s"/>
-      <c r="CA11" t="s"/>
-      <c r="CB11" t="s"/>
-      <c r="CC11" t="s"/>
-      <c r="CD11" t="s"/>
-      <c r="CE11" t="s"/>
-      <c r="CF11" t="s"/>
-      <c r="CG11" t="s"/>
-      <c r="CH11" t="s"/>
-      <c r="CI11" t="s"/>
-      <c r="CJ11" t="s"/>
-      <c r="CK11" t="s"/>
-      <c r="CL11" t="s"/>
-      <c r="CM11" t="s"/>
-      <c r="CN11" t="s"/>
-      <c r="CO11" t="s"/>
-      <c r="CP11" t="s"/>
-      <c r="CQ11" t="s"/>
-      <c r="CR11" t="s"/>
-      <c r="CS11" t="s"/>
-      <c r="CT11" t="s"/>
-      <c r="CU11" t="s"/>
-      <c r="CV11" t="s"/>
-      <c r="CW11" t="s"/>
-      <c r="CX11" t="s"/>
-      <c r="CY11" t="s"/>
-      <c r="CZ11" t="s"/>
-      <c r="DA11" t="s"/>
-      <c r="DB11" t="s"/>
-      <c r="DC11" t="s"/>
-      <c r="DD11" t="s"/>
-      <c r="DE11" t="s"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>optical instruments, photographic equipment, cds, audio-video cassettes and musical instruments//total</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr"/>
+      <c r="CG11" t="inlineStr"/>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="inlineStr"/>
+      <c r="CJ11" t="inlineStr"/>
+      <c r="CK11" t="inlineStr"/>
+      <c r="CL11" t="inlineStr"/>
+      <c r="CM11" t="inlineStr"/>
+      <c r="CN11" t="inlineStr"/>
+      <c r="CO11" t="inlineStr"/>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr"/>
+      <c r="CW11" t="inlineStr"/>
+      <c r="CX11" t="inlineStr"/>
+      <c r="CY11" t="inlineStr"/>
+      <c r="CZ11" t="inlineStr"/>
+      <c r="DA11" t="inlineStr"/>
+      <c r="DB11" t="inlineStr"/>
+      <c r="DC11" t="inlineStr"/>
+      <c r="DD11" t="inlineStr"/>
+      <c r="DE11" t="inlineStr"/>
       <c r="DF11" t="n">
         <v>101.2</v>
       </c>
@@ -10119,9 +9776,11 @@
         <v>95.59999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:311">
-      <c r="A12" s="1" t="s">
-        <v>320</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>durable and non-durable household items//total</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>77.6438812960631</v>
@@ -11054,9 +10713,11 @@
         <v>110.1</v>
       </c>
     </row>
-    <row r="13" spans="1:311">
-      <c r="A13" s="1" t="s">
-        <v>321</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>household tools and hardware//total</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>76.3183436345783</v>
@@ -11989,118 +11650,120 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="14" spans="1:311">
-      <c r="A14" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="s"/>
-      <c r="AE14" t="s"/>
-      <c r="AF14" t="s"/>
-      <c r="AG14" t="s"/>
-      <c r="AH14" t="s"/>
-      <c r="AI14" t="s"/>
-      <c r="AJ14" t="s"/>
-      <c r="AK14" t="s"/>
-      <c r="AL14" t="s"/>
-      <c r="AM14" t="s"/>
-      <c r="AN14" t="s"/>
-      <c r="AO14" t="s"/>
-      <c r="AP14" t="s"/>
-      <c r="AQ14" t="s"/>
-      <c r="AR14" t="s"/>
-      <c r="AS14" t="s"/>
-      <c r="AT14" t="s"/>
-      <c r="AU14" t="s"/>
-      <c r="AV14" t="s"/>
-      <c r="AW14" t="s"/>
-      <c r="AX14" t="s"/>
-      <c r="AY14" t="s"/>
-      <c r="AZ14" t="s"/>
-      <c r="BA14" t="s"/>
-      <c r="BB14" t="s"/>
-      <c r="BC14" t="s"/>
-      <c r="BD14" t="s"/>
-      <c r="BE14" t="s"/>
-      <c r="BF14" t="s"/>
-      <c r="BG14" t="s"/>
-      <c r="BH14" t="s"/>
-      <c r="BI14" t="s"/>
-      <c r="BJ14" t="s"/>
-      <c r="BK14" t="s"/>
-      <c r="BL14" t="s"/>
-      <c r="BM14" t="s"/>
-      <c r="BN14" t="s"/>
-      <c r="BO14" t="s"/>
-      <c r="BP14" t="s"/>
-      <c r="BQ14" t="s"/>
-      <c r="BR14" t="s"/>
-      <c r="BS14" t="s"/>
-      <c r="BT14" t="s"/>
-      <c r="BU14" t="s"/>
-      <c r="BV14" t="s"/>
-      <c r="BW14" t="s"/>
-      <c r="BX14" t="s"/>
-      <c r="BY14" t="s"/>
-      <c r="BZ14" t="s"/>
-      <c r="CA14" t="s"/>
-      <c r="CB14" t="s"/>
-      <c r="CC14" t="s"/>
-      <c r="CD14" t="s"/>
-      <c r="CE14" t="s"/>
-      <c r="CF14" t="s"/>
-      <c r="CG14" t="s"/>
-      <c r="CH14" t="s"/>
-      <c r="CI14" t="s"/>
-      <c r="CJ14" t="s"/>
-      <c r="CK14" t="s"/>
-      <c r="CL14" t="s"/>
-      <c r="CM14" t="s"/>
-      <c r="CN14" t="s"/>
-      <c r="CO14" t="s"/>
-      <c r="CP14" t="s"/>
-      <c r="CQ14" t="s"/>
-      <c r="CR14" t="s"/>
-      <c r="CS14" t="s"/>
-      <c r="CT14" t="s"/>
-      <c r="CU14" t="s"/>
-      <c r="CV14" t="s"/>
-      <c r="CW14" t="s"/>
-      <c r="CX14" t="s"/>
-      <c r="CY14" t="s"/>
-      <c r="CZ14" t="s"/>
-      <c r="DA14" t="s"/>
-      <c r="DB14" t="s"/>
-      <c r="DC14" t="s"/>
-      <c r="DD14" t="s"/>
-      <c r="DE14" t="s"/>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>toiletry and personal grooming items//total</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr"/>
+      <c r="CJ14" t="inlineStr"/>
+      <c r="CK14" t="inlineStr"/>
+      <c r="CL14" t="inlineStr"/>
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr"/>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr"/>
+      <c r="CW14" t="inlineStr"/>
+      <c r="CX14" t="inlineStr"/>
+      <c r="CY14" t="inlineStr"/>
+      <c r="CZ14" t="inlineStr"/>
+      <c r="DA14" t="inlineStr"/>
+      <c r="DB14" t="inlineStr"/>
+      <c r="DC14" t="inlineStr"/>
+      <c r="DD14" t="inlineStr"/>
+      <c r="DE14" t="inlineStr"/>
       <c r="DF14" t="n">
         <v>90.2</v>
       </c>
@@ -12708,118 +12371,120 @@
         <v>106.7</v>
       </c>
     </row>
-    <row r="15" spans="1:311">
-      <c r="A15" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
-      <c r="D15" t="s"/>
-      <c r="E15" t="s"/>
-      <c r="F15" t="s"/>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
-      <c r="M15" t="s"/>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
-      <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
-      <c r="V15" t="s"/>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
-      <c r="Z15" t="s"/>
-      <c r="AA15" t="s"/>
-      <c r="AB15" t="s"/>
-      <c r="AC15" t="s"/>
-      <c r="AD15" t="s"/>
-      <c r="AE15" t="s"/>
-      <c r="AF15" t="s"/>
-      <c r="AG15" t="s"/>
-      <c r="AH15" t="s"/>
-      <c r="AI15" t="s"/>
-      <c r="AJ15" t="s"/>
-      <c r="AK15" t="s"/>
-      <c r="AL15" t="s"/>
-      <c r="AM15" t="s"/>
-      <c r="AN15" t="s"/>
-      <c r="AO15" t="s"/>
-      <c r="AP15" t="s"/>
-      <c r="AQ15" t="s"/>
-      <c r="AR15" t="s"/>
-      <c r="AS15" t="s"/>
-      <c r="AT15" t="s"/>
-      <c r="AU15" t="s"/>
-      <c r="AV15" t="s"/>
-      <c r="AW15" t="s"/>
-      <c r="AX15" t="s"/>
-      <c r="AY15" t="s"/>
-      <c r="AZ15" t="s"/>
-      <c r="BA15" t="s"/>
-      <c r="BB15" t="s"/>
-      <c r="BC15" t="s"/>
-      <c r="BD15" t="s"/>
-      <c r="BE15" t="s"/>
-      <c r="BF15" t="s"/>
-      <c r="BG15" t="s"/>
-      <c r="BH15" t="s"/>
-      <c r="BI15" t="s"/>
-      <c r="BJ15" t="s"/>
-      <c r="BK15" t="s"/>
-      <c r="BL15" t="s"/>
-      <c r="BM15" t="s"/>
-      <c r="BN15" t="s"/>
-      <c r="BO15" t="s"/>
-      <c r="BP15" t="s"/>
-      <c r="BQ15" t="s"/>
-      <c r="BR15" t="s"/>
-      <c r="BS15" t="s"/>
-      <c r="BT15" t="s"/>
-      <c r="BU15" t="s"/>
-      <c r="BV15" t="s"/>
-      <c r="BW15" t="s"/>
-      <c r="BX15" t="s"/>
-      <c r="BY15" t="s"/>
-      <c r="BZ15" t="s"/>
-      <c r="CA15" t="s"/>
-      <c r="CB15" t="s"/>
-      <c r="CC15" t="s"/>
-      <c r="CD15" t="s"/>
-      <c r="CE15" t="s"/>
-      <c r="CF15" t="s"/>
-      <c r="CG15" t="s"/>
-      <c r="CH15" t="s"/>
-      <c r="CI15" t="s"/>
-      <c r="CJ15" t="s"/>
-      <c r="CK15" t="s"/>
-      <c r="CL15" t="s"/>
-      <c r="CM15" t="s"/>
-      <c r="CN15" t="s"/>
-      <c r="CO15" t="s"/>
-      <c r="CP15" t="s"/>
-      <c r="CQ15" t="s"/>
-      <c r="CR15" t="s"/>
-      <c r="CS15" t="s"/>
-      <c r="CT15" t="s"/>
-      <c r="CU15" t="s"/>
-      <c r="CV15" t="s"/>
-      <c r="CW15" t="s"/>
-      <c r="CX15" t="s"/>
-      <c r="CY15" t="s"/>
-      <c r="CZ15" t="s"/>
-      <c r="DA15" t="s"/>
-      <c r="DB15" t="s"/>
-      <c r="DC15" t="s"/>
-      <c r="DD15" t="s"/>
-      <c r="DE15" t="s"/>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>stationery products, books, newspapers and magazines//total</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr"/>
+      <c r="CE15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="inlineStr"/>
+      <c r="CH15" t="inlineStr"/>
+      <c r="CI15" t="inlineStr"/>
+      <c r="CJ15" t="inlineStr"/>
+      <c r="CK15" t="inlineStr"/>
+      <c r="CL15" t="inlineStr"/>
+      <c r="CM15" t="inlineStr"/>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr"/>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr"/>
+      <c r="CS15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr"/>
+      <c r="CW15" t="inlineStr"/>
+      <c r="CX15" t="inlineStr"/>
+      <c r="CY15" t="inlineStr"/>
+      <c r="CZ15" t="inlineStr"/>
+      <c r="DA15" t="inlineStr"/>
+      <c r="DB15" t="inlineStr"/>
+      <c r="DC15" t="inlineStr"/>
+      <c r="DD15" t="inlineStr"/>
+      <c r="DE15" t="inlineStr"/>
       <c r="DF15" t="n">
         <v>93.8</v>
       </c>
@@ -13427,118 +13092,120 @@
         <v>86.90000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:311">
-      <c r="A16" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
-      <c r="D16" t="s"/>
-      <c r="E16" t="s"/>
-      <c r="F16" t="s"/>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
-      <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
-      <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
-      <c r="V16" t="s"/>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
-      <c r="Z16" t="s"/>
-      <c r="AA16" t="s"/>
-      <c r="AB16" t="s"/>
-      <c r="AC16" t="s"/>
-      <c r="AD16" t="s"/>
-      <c r="AE16" t="s"/>
-      <c r="AF16" t="s"/>
-      <c r="AG16" t="s"/>
-      <c r="AH16" t="s"/>
-      <c r="AI16" t="s"/>
-      <c r="AJ16" t="s"/>
-      <c r="AK16" t="s"/>
-      <c r="AL16" t="s"/>
-      <c r="AM16" t="s"/>
-      <c r="AN16" t="s"/>
-      <c r="AO16" t="s"/>
-      <c r="AP16" t="s"/>
-      <c r="AQ16" t="s"/>
-      <c r="AR16" t="s"/>
-      <c r="AS16" t="s"/>
-      <c r="AT16" t="s"/>
-      <c r="AU16" t="s"/>
-      <c r="AV16" t="s"/>
-      <c r="AW16" t="s"/>
-      <c r="AX16" t="s"/>
-      <c r="AY16" t="s"/>
-      <c r="AZ16" t="s"/>
-      <c r="BA16" t="s"/>
-      <c r="BB16" t="s"/>
-      <c r="BC16" t="s"/>
-      <c r="BD16" t="s"/>
-      <c r="BE16" t="s"/>
-      <c r="BF16" t="s"/>
-      <c r="BG16" t="s"/>
-      <c r="BH16" t="s"/>
-      <c r="BI16" t="s"/>
-      <c r="BJ16" t="s"/>
-      <c r="BK16" t="s"/>
-      <c r="BL16" t="s"/>
-      <c r="BM16" t="s"/>
-      <c r="BN16" t="s"/>
-      <c r="BO16" t="s"/>
-      <c r="BP16" t="s"/>
-      <c r="BQ16" t="s"/>
-      <c r="BR16" t="s"/>
-      <c r="BS16" t="s"/>
-      <c r="BT16" t="s"/>
-      <c r="BU16" t="s"/>
-      <c r="BV16" t="s"/>
-      <c r="BW16" t="s"/>
-      <c r="BX16" t="s"/>
-      <c r="BY16" t="s"/>
-      <c r="BZ16" t="s"/>
-      <c r="CA16" t="s"/>
-      <c r="CB16" t="s"/>
-      <c r="CC16" t="s"/>
-      <c r="CD16" t="s"/>
-      <c r="CE16" t="s"/>
-      <c r="CF16" t="s"/>
-      <c r="CG16" t="s"/>
-      <c r="CH16" t="s"/>
-      <c r="CI16" t="s"/>
-      <c r="CJ16" t="s"/>
-      <c r="CK16" t="s"/>
-      <c r="CL16" t="s"/>
-      <c r="CM16" t="s"/>
-      <c r="CN16" t="s"/>
-      <c r="CO16" t="s"/>
-      <c r="CP16" t="s"/>
-      <c r="CQ16" t="s"/>
-      <c r="CR16" t="s"/>
-      <c r="CS16" t="s"/>
-      <c r="CT16" t="s"/>
-      <c r="CU16" t="s"/>
-      <c r="CV16" t="s"/>
-      <c r="CW16" t="s"/>
-      <c r="CX16" t="s"/>
-      <c r="CY16" t="s"/>
-      <c r="CZ16" t="s"/>
-      <c r="DA16" t="s"/>
-      <c r="DB16" t="s"/>
-      <c r="DC16" t="s"/>
-      <c r="DD16" t="s"/>
-      <c r="DE16" t="s"/>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>games, toys, sports articles and camping items//total</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr"/>
+      <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr"/>
+      <c r="CL16" t="inlineStr"/>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr"/>
+      <c r="CW16" t="inlineStr"/>
+      <c r="CX16" t="inlineStr"/>
+      <c r="CY16" t="inlineStr"/>
+      <c r="CZ16" t="inlineStr"/>
+      <c r="DA16" t="inlineStr"/>
+      <c r="DB16" t="inlineStr"/>
+      <c r="DC16" t="inlineStr"/>
+      <c r="DD16" t="inlineStr"/>
+      <c r="DE16" t="inlineStr"/>
       <c r="DF16" t="n">
         <v>83.40000000000001</v>
       </c>
@@ -14146,118 +13813,120 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:311">
-      <c r="A17" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
-      <c r="D17" t="s"/>
-      <c r="E17" t="s"/>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s"/>
-      <c r="J17" t="s"/>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
-      <c r="M17" t="s"/>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
-      <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
-      <c r="V17" t="s"/>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
-      <c r="Z17" t="s"/>
-      <c r="AA17" t="s"/>
-      <c r="AB17" t="s"/>
-      <c r="AC17" t="s"/>
-      <c r="AD17" t="s"/>
-      <c r="AE17" t="s"/>
-      <c r="AF17" t="s"/>
-      <c r="AG17" t="s"/>
-      <c r="AH17" t="s"/>
-      <c r="AI17" t="s"/>
-      <c r="AJ17" t="s"/>
-      <c r="AK17" t="s"/>
-      <c r="AL17" t="s"/>
-      <c r="AM17" t="s"/>
-      <c r="AN17" t="s"/>
-      <c r="AO17" t="s"/>
-      <c r="AP17" t="s"/>
-      <c r="AQ17" t="s"/>
-      <c r="AR17" t="s"/>
-      <c r="AS17" t="s"/>
-      <c r="AT17" t="s"/>
-      <c r="AU17" t="s"/>
-      <c r="AV17" t="s"/>
-      <c r="AW17" t="s"/>
-      <c r="AX17" t="s"/>
-      <c r="AY17" t="s"/>
-      <c r="AZ17" t="s"/>
-      <c r="BA17" t="s"/>
-      <c r="BB17" t="s"/>
-      <c r="BC17" t="s"/>
-      <c r="BD17" t="s"/>
-      <c r="BE17" t="s"/>
-      <c r="BF17" t="s"/>
-      <c r="BG17" t="s"/>
-      <c r="BH17" t="s"/>
-      <c r="BI17" t="s"/>
-      <c r="BJ17" t="s"/>
-      <c r="BK17" t="s"/>
-      <c r="BL17" t="s"/>
-      <c r="BM17" t="s"/>
-      <c r="BN17" t="s"/>
-      <c r="BO17" t="s"/>
-      <c r="BP17" t="s"/>
-      <c r="BQ17" t="s"/>
-      <c r="BR17" t="s"/>
-      <c r="BS17" t="s"/>
-      <c r="BT17" t="s"/>
-      <c r="BU17" t="s"/>
-      <c r="BV17" t="s"/>
-      <c r="BW17" t="s"/>
-      <c r="BX17" t="s"/>
-      <c r="BY17" t="s"/>
-      <c r="BZ17" t="s"/>
-      <c r="CA17" t="s"/>
-      <c r="CB17" t="s"/>
-      <c r="CC17" t="s"/>
-      <c r="CD17" t="s"/>
-      <c r="CE17" t="s"/>
-      <c r="CF17" t="s"/>
-      <c r="CG17" t="s"/>
-      <c r="CH17" t="s"/>
-      <c r="CI17" t="s"/>
-      <c r="CJ17" t="s"/>
-      <c r="CK17" t="s"/>
-      <c r="CL17" t="s"/>
-      <c r="CM17" t="s"/>
-      <c r="CN17" t="s"/>
-      <c r="CO17" t="s"/>
-      <c r="CP17" t="s"/>
-      <c r="CQ17" t="s"/>
-      <c r="CR17" t="s"/>
-      <c r="CS17" t="s"/>
-      <c r="CT17" t="s"/>
-      <c r="CU17" t="s"/>
-      <c r="CV17" t="s"/>
-      <c r="CW17" t="s"/>
-      <c r="CX17" t="s"/>
-      <c r="CY17" t="s"/>
-      <c r="CZ17" t="s"/>
-      <c r="DA17" t="s"/>
-      <c r="DB17" t="s"/>
-      <c r="DC17" t="s"/>
-      <c r="DD17" t="s"/>
-      <c r="DE17" t="s"/>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>other products not classified elsewhere//total</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr"/>
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
+      <c r="CB17" t="inlineStr"/>
+      <c r="CC17" t="inlineStr"/>
+      <c r="CD17" t="inlineStr"/>
+      <c r="CE17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr"/>
+      <c r="CG17" t="inlineStr"/>
+      <c r="CH17" t="inlineStr"/>
+      <c r="CI17" t="inlineStr"/>
+      <c r="CJ17" t="inlineStr"/>
+      <c r="CK17" t="inlineStr"/>
+      <c r="CL17" t="inlineStr"/>
+      <c r="CM17" t="inlineStr"/>
+      <c r="CN17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr"/>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr"/>
+      <c r="CW17" t="inlineStr"/>
+      <c r="CX17" t="inlineStr"/>
+      <c r="CY17" t="inlineStr"/>
+      <c r="CZ17" t="inlineStr"/>
+      <c r="DA17" t="inlineStr"/>
+      <c r="DB17" t="inlineStr"/>
+      <c r="DC17" t="inlineStr"/>
+      <c r="DD17" t="inlineStr"/>
+      <c r="DE17" t="inlineStr"/>
       <c r="DF17" t="n">
         <v>87</v>
       </c>
